--- a/Documents/Pre-production/Laith Gantt.xlsx
+++ b/Documents/Pre-production/Laith Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Downloads\Laith-master\Documents\Pre-production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,9 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -322,6 +319,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,27 +619,27 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2">
@@ -675,332 +675,335 @@
       <c r="N2" s="1">
         <v>11</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="11"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>150</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>130</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="O6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22">
-        <v>100</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="21">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="21">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="21">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>20</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22">
-        <v>120</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="C13" s="21">
+        <v>80</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22">
-        <v>60</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="C14" s="21">
+        <v>80</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22">
-        <v>20</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="C15" s="21">
+        <v>40</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>60</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>40</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>80</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>40</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="7"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>20</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="5"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>40</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="5"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>20</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="5"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="19"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>20</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>180</v>
       </c>
       <c r="D26" s="1"/>
@@ -1013,15 +1016,15 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="12"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>1200</v>
       </c>
     </row>

--- a/Documents/Pre-production/Laith Gantt.xlsx
+++ b/Documents/Pre-production/Laith Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Downloads\Laith-master\Documents\Pre-production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Laith\Documents\Pre-production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$38</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -65,33 +68,12 @@
     <t>Placeholdermodeller</t>
   </si>
   <si>
-    <t>DirectIP</t>
-  </si>
-  <si>
     <t>Entitys</t>
   </si>
   <si>
-    <t>Attackera</t>
-  </si>
-  <si>
-    <t>Fiende &amp; AI</t>
-  </si>
-  <si>
-    <t>Basmodell</t>
-  </si>
-  <si>
-    <t>Lobbyserver</t>
-  </si>
-  <si>
-    <t>Modeller</t>
-  </si>
-  <si>
     <t>Ljud</t>
   </si>
   <si>
-    <t>Speltester</t>
-  </si>
-  <si>
     <t>Kommunikation</t>
   </si>
   <si>
@@ -101,13 +83,58 @@
     <t>Timmar</t>
   </si>
   <si>
-    <t>Buggfix &amp; annat</t>
-  </si>
-  <si>
     <t>Vecka</t>
   </si>
   <si>
     <t>Total tid:</t>
+  </si>
+  <si>
+    <t>Nätverk</t>
+  </si>
+  <si>
+    <t>Leveldesign</t>
+  </si>
+  <si>
+    <t>Pusselskisser</t>
+  </si>
+  <si>
+    <t>Nivåskisser</t>
+  </si>
+  <si>
+    <t>Nivåbygge</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Placeholder modeller</t>
+  </si>
+  <si>
+    <t>Hälsa &amp; Respawn</t>
+  </si>
+  <si>
+    <t>Powerups</t>
+  </si>
+  <si>
+    <t>Byta nivå</t>
+  </si>
+  <si>
+    <t>Karaktärer</t>
+  </si>
+  <si>
+    <t>Fiender &amp; AI</t>
+  </si>
+  <si>
+    <t>Modellering</t>
+  </si>
+  <si>
+    <t>Externa Speltester</t>
+  </si>
+  <si>
+    <t>Ersätta placeholdermodeller</t>
+  </si>
+  <si>
+    <t>Buggfix &amp; Övrigt</t>
   </si>
 </sst>
 </file>
@@ -130,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,18 +166,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -283,44 +316,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,437 +690,875 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="4" max="15" width="4.7109375" customWidth="1"/>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="16" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="25" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14">
+        <v>3</v>
+      </c>
+      <c r="H2" s="14">
+        <v>4</v>
+      </c>
+      <c r="I2" s="14">
+        <v>5</v>
+      </c>
+      <c r="J2" s="14">
+        <v>6</v>
+      </c>
+      <c r="K2" s="14">
+        <v>7</v>
+      </c>
+      <c r="L2" s="14">
+        <v>8</v>
+      </c>
+      <c r="M2" s="14">
+        <v>9</v>
+      </c>
+      <c r="N2" s="14">
+        <v>10</v>
+      </c>
+      <c r="O2" s="14">
+        <v>11</v>
+      </c>
+      <c r="P2" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="9">
+        <v>150</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="9">
+        <v>130</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="9">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="9">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="9">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="9">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="9">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="C25" s="2"/>
+      <c r="D25" s="9">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="9">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="9">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="9">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="9">
+        <v>40</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="9">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="29"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="9">
+        <v>20</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="9">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
-        <v>11</v>
-      </c>
-      <c r="O2" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21">
-        <v>150</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="21">
-        <v>130</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="21">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="21">
-        <v>60</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="21">
-        <v>60</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="21">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="21">
-        <v>20</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="21">
-        <v>80</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="21">
-        <v>80</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="21">
-        <v>40</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="21">
-        <v>60</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="21">
-        <v>40</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="21">
-        <v>80</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="10">
+        <v>170</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="21">
-        <v>40</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="7"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="21">
-        <v>20</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="21">
-        <v>40</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="21">
-        <v>20</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="18"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="21">
-        <v>20</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="22">
-        <v>180</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="D37" s="30">
         <v>1200</v>
       </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="E1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Pre-production/Laith Gantt.xlsx
+++ b/Documents/Pre-production/Laith Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Laith\Documents\Pre-production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Laith\Documents\Pre-production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Kommunikation</t>
   </si>
   <si>
-    <t>Menyer</t>
-  </si>
-  <si>
     <t>Timmar</t>
   </si>
   <si>
@@ -131,10 +128,16 @@
     <t>Externa Speltester</t>
   </si>
   <si>
-    <t>Ersätta placeholdermodeller</t>
-  </si>
-  <si>
     <t>Buggfix &amp; Övrigt</t>
+  </si>
+  <si>
+    <t>Placeholders</t>
+  </si>
+  <si>
+    <t>Levedesign</t>
+  </si>
+  <si>
+    <t>Speltester</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -387,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -410,6 +410,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:P37"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,20 +714,20 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="E1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -731,12 +736,12 @@
       <c r="B2" s="14"/>
       <c r="C2" s="17"/>
       <c r="D2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="31">
+        <v>16</v>
+      </c>
+      <c r="E2" s="30">
         <v>1</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>2</v>
       </c>
       <c r="G2" s="14">
@@ -771,24 +776,24 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
@@ -865,24 +870,24 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
@@ -975,29 +980,29 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="9">
@@ -1019,7 +1024,7 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="9"/>
@@ -1040,7 +1045,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9">
         <v>20</v>
@@ -1062,7 +1067,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="9">
         <v>20</v>
@@ -1084,7 +1089,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="9">
         <v>20</v>
@@ -1127,7 +1132,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
@@ -1148,7 +1153,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
       <c r="C20" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="9">
         <v>10</v>
@@ -1170,7 +1175,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
       <c r="C21" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="9">
         <v>10</v>
@@ -1192,7 +1197,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
       <c r="C22" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="9">
         <v>10</v>
@@ -1214,7 +1219,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
       <c r="C23" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="9">
         <v>80</v>
@@ -1236,7 +1241,7 @@
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9">
         <v>30</v>
@@ -1257,7 +1262,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="9">
@@ -1277,29 +1282,29 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="9">
@@ -1321,7 +1326,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="9">
@@ -1343,7 +1348,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="9">
@@ -1387,7 +1392,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
@@ -1429,33 +1434,33 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="28"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1468,12 +1473,12 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="2"/>
+      <c r="P34" s="34"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="9">
@@ -1490,57 +1495,37 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="2"/>
+      <c r="P35" s="19"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="9">
+        <v>10</v>
+      </c>
+      <c r="O36" s="33"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="10">
-        <v>170</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="30">
-        <v>1200</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="D37" s="9">
+        <v>10</v>
+      </c>
+      <c r="O37" s="33"/>
+      <c r="P37" s="19"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="9">
+        <v>20</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1551,8 +1536,52 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="10">
+        <v>110</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
